--- a/MyProject/Luban/Config/Datas/MapInfo.xlsx
+++ b/MyProject/Luban/Config/Datas/MapInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\MyProject\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B942808-5ED7-4952-BE08-3878DD8557D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7085506F-E783-4F7F-94B7-DDFC016EED24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="8550" windowWidth="28740" windowHeight="13575" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="28740" windowHeight="13575" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>##</t>
   </si>
@@ -141,6 +141,46 @@
   </si>
   <si>
     <t>Col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossLocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss所在位置（的左上角）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城墙外延</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossLocationName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正殿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,10 +232,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -203,8 +246,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,7 +540,7 @@
     <col min="4" max="4" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -507,22 +550,22 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
@@ -532,8 +575,15 @@
       <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -543,22 +593,22 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
       <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
@@ -568,40 +618,53 @@
       <c r="R2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="S3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,22 +674,22 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="3" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
       <c r="P4" s="1" t="s">
         <v>10</v>
       </c>
@@ -636,8 +699,15 @@
       <c r="R4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>1</v>
@@ -660,7 +730,9 @@
       <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="J5" s="1">
         <v>30001</v>
       </c>
@@ -679,8 +751,17 @@
       <c r="R5">
         <v>30001</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>12</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L6">
         <v>1</v>
       </c>
@@ -688,7 +769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -706,7 +787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -719,7 +800,7 @@
       <c r="J8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -730,7 +811,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -741,7 +822,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -752,7 +833,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -763,7 +844,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -774,7 +855,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -785,12 +866,15 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S4:T4"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="D1:K1"/>
